--- a/doc/하이캐피탈_펌뱅킹_우리은행_업무진행내용.xlsx
+++ b/doc/하이캐피탈_펌뱅킹_우리은행_업무진행내용.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>하이캐피탈 업체번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,46 @@
   </si>
   <si>
     <t xml:space="preserve"> - 지급전문개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 은행에서 계좌에 따른 입금이 분리되어 있어야 하나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 가상계좌번호와 실계좌와의 연계는 어떻게 되나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 가상계좌의 실계좌 추가시는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KIBNET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이캐피탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 가상계좌 여러계좌 입금 필요 사항은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 지급 이체 업무 프로세스 정의 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 가상계좌입금처리 프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 지급 이체계좌와 가상계좌 입금 계좌를 분리할 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 은행에서 여러 개의 입금 계좌를 사용시 따로 정의 해서 사용할 것인가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E32"/>
+  <dimension ref="A2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -636,6 +676,59 @@
     <row r="32" spans="3:4">
       <c r="D32" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>40879</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
